--- a/Planung/LED16x16_Desing.xlsx
+++ b/Planung/LED16x16_Desing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/yves_jaros_edu_gbssg_ch/Documents/Repositories/Neuer Ordner/Projekt_DMHS_Wanduhr/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B5D03C-D738-45D5-9A44-606703A0B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="8_{31B5D03C-D738-45D5-9A44-606703A0B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43F814A-9790-48D9-B64D-A652F792EC0E}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="1545" windowWidth="21600" windowHeight="11295" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,29 @@
     <sheet name="1_(4)1" sheetId="4" r:id="rId4"/>
     <sheet name="1_(3)" sheetId="5" r:id="rId5"/>
     <sheet name="1_(4)" sheetId="6" r:id="rId6"/>
-    <sheet name="1_(2)" sheetId="7" r:id="rId7"/>
+    <sheet name="1_(6)" sheetId="10" r:id="rId7"/>
     <sheet name="1_(5)" sheetId="8" r:id="rId8"/>
-    <sheet name="Tabelle2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>xx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,172 +114,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="cf1" xfId="1"/>
-    <cellStyle name="cf2" xfId="2"/>
-    <cellStyle name="cf3" xfId="3"/>
+    <cellStyle name="cf1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="cf2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="cf3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF2F2F2"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF404040"/>
-          <bgColor rgb="FF404040"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -449,6 +291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,15 +613,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="1" max="2" width="8.5703125" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>13</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AF33">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="AR22" sqref="AR22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -828,201 +1072,171 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="R4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="V20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -1032,98 +1246,147 @@
       <c r="R24" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="T24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Z24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1" t="s">
+      <c r="V26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
+      <c r="R32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" scale="93" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="EN28" sqref="EN28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1176,154 +1439,197 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,12 +1643,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -1352,15 +1667,31 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -1369,21 +1700,34 @@
       <c r="Z24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AF24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="Z26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AB26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,12 +1735,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -1409,12 +1760,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -1427,11 +1785,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,34 +1806,74 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1522,7 +1926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1532,17 +1936,12 @@
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="P2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,18 +1949,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1574,24 +1970,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,8 +1988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1616,37 +2006,25 @@
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -1659,22 +2037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -1687,21 +2058,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
@@ -1711,29 +2079,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="R20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,26 +2109,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="U22" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,33 +2130,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,19 +2145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1845,27 +2175,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="Z28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1873,27 +2199,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="Z30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1901,57 +2223,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J32" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="V32" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AB32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="CE55" sqref="CE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -2004,382 +2373,290 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="AB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="J32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="10" zoomScaleNormal="40" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -2432,7 +2709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2446,15 +2723,15 @@
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2464,33 +2741,24 @@
       <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2500,99 +2768,97 @@
       <c r="L8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -2602,15 +2868,15 @@
       <c r="N22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -2620,18 +2886,18 @@
       <c r="N24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="S24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -2641,92 +2907,129 @@
       <c r="L26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="N30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A49D13-9EDA-471C-96C1-96450A385E30}">
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -2779,126 +3082,139 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2907,177 +3223,243 @@
       <c r="X14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="R20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1" t="s">
+    </row>
+    <row r="33" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="DW20" sqref="DW20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -3130,42 +3512,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -3175,54 +3622,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -3231,427 +3660,113 @@
       <c r="Z14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>13</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF33">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>AND(B$1&lt;&gt;"",$A2&lt;&gt;"",B2&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>